--- a/doc/Accpac/ARInvoice1.xlsx
+++ b/doc/Accpac/ARInvoice1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work Space\BTStuff\Sage 300\Import Templates\BSJ\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="96" windowWidth="23892" windowHeight="14532"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="19440" windowHeight="14535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Invoices" sheetId="1" r:id="rId1"/>
@@ -216,7 +211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,7 +246,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -462,62 +457,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="37" width="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="43" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="43" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="44" max="48" width="12" bestFit="1" customWidth="1"/>
-    <col min="49" max="53" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="58" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="71" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="49" max="53" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="58" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="67" max="71" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="10" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:76" x14ac:dyDescent="0.3">
@@ -618,18 +613,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -732,10 +727,10 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -762,9 +757,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -792,10 +787,10 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
